--- a/JMeter_Projects/Load_profile/load_profile.xlsx
+++ b/JMeter_Projects/Load_profile/load_profile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spn_one\Desktop\test_chat\JMeter_Projects\Load_profile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD20C5DA-3CA4-4A37-96E6-C10E041EE600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{F4FC5A01-4112-473C-B652-C6E006E9061D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{509CE6AE-BF32-4B58-8CA7-41E8852CA4F0}"/>
+    <workbookView xWindow="0" yWindow="360" windowWidth="23256" windowHeight="13896" xr2:uid="{509CE6AE-BF32-4B58-8CA7-41E8852CA4F0}"/>
   </bookViews>
   <sheets>
     <sheet name="статистика" sheetId="1" r:id="rId1"/>
@@ -468,14 +468,7 @@
     <cellStyle name="Text" xfId="17" xr:uid="{99104442-93FC-41F6-80A2-73A3CCFED88F}"/>
     <cellStyle name="Warning" xfId="18" xr:uid="{BEA099A6-9E8D-4FF7-A2C0-31CD4EAA2020}"/>
   </cellStyles>
-  <dxfs count="22">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <fill>
         <patternFill>
@@ -500,7 +493,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF92D050"/>
+          <bgColor theme="3" tint="0.749961851863155"/>
         </patternFill>
       </fill>
     </dxf>
@@ -508,41 +501,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.749961851863155"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7171"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.749961851863155"/>
         </patternFill>
       </fill>
     </dxf>
@@ -571,48 +529,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF7171"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7171"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF8181"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7171"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -960,10 +876,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{577612BC-79B4-4585-B3BD-467CE67F5F7E}">
-  <dimension ref="A1:K43"/>
+  <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J43" sqref="J43"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -978,8 +894,8 @@
     <col min="8" max="8" width="15.3984375" customWidth="1"/>
     <col min="9" max="9" width="15.59765625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.3984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.69921875" customWidth="1"/>
+    <col min="11" max="11" width="5.3984375" customWidth="1"/>
+    <col min="12" max="12" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1370,27 +1286,27 @@
         <v>1000</v>
       </c>
       <c r="E24" s="6">
-        <f>G24/I24*3600000</f>
-        <v>982.82218265702829</v>
+        <f>F24/I24*3600000</f>
+        <v>1007.9999999999999</v>
       </c>
       <c r="F24" s="5">
         <f>(I24*(D24+C24))/3600000</f>
         <v>24.614829037128263</v>
       </c>
       <c r="G24" s="15">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H24" s="6">
         <f>G24/(C24 + D24) * 3600000</f>
-        <v>85714.28571428571</v>
+        <v>89285.714285714275</v>
       </c>
       <c r="I24" s="6">
         <f>H2</f>
         <v>87910.10370402952</v>
       </c>
       <c r="J24" s="12">
-        <f>(I24-H24)/I24*100</f>
-        <v>2.4977993395805314</v>
+        <f>(H24-I24)/I24*100</f>
+        <v>1.5647923546036064</v>
       </c>
       <c r="K24" s="5">
         <f>I24/3600</f>
@@ -1411,8 +1327,8 @@
         <v>1100</v>
       </c>
       <c r="E25" s="6">
-        <f t="shared" ref="E25:E32" si="1">G25/I25*3600000</f>
-        <v>1180.181896791936</v>
+        <f t="shared" ref="E25:E32" si="1">F25/I25*3600000</f>
+        <v>1153</v>
       </c>
       <c r="F25" s="5">
         <f>(I25*(D25+C25))/3600000</f>
@@ -1430,7 +1346,7 @@
         <v>48806.035880208707</v>
       </c>
       <c r="J25" s="12">
-        <f t="shared" ref="J25:J33" si="3">(I25-H25)/I25*100</f>
+        <f>(I25-H25)/I25*100</f>
         <v>-2.3574932169935905</v>
       </c>
       <c r="K25" s="5">
@@ -1453,7 +1369,7 @@
       </c>
       <c r="E26" s="6">
         <f t="shared" si="1"/>
-        <v>1526.6742445383281</v>
+        <v>1559</v>
       </c>
       <c r="F26" s="5">
         <f>(I26*(D26+C26))/3600000</f>
@@ -1471,7 +1387,7 @@
         <v>35371.003469263211</v>
       </c>
       <c r="J26" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="J25:J33" si="3">(I26-H26)/I26*100</f>
         <v>2.0734929738083285</v>
       </c>
       <c r="K26" s="5">
@@ -1494,7 +1410,7 @@
       </c>
       <c r="E27" s="6">
         <f t="shared" si="1"/>
-        <v>1185.5422596521885</v>
+        <v>1157</v>
       </c>
       <c r="F27" s="5">
         <f>(I27*(D27+C27))/3600000</f>
@@ -1535,7 +1451,7 @@
       </c>
       <c r="E28" s="6">
         <f t="shared" si="1"/>
-        <v>1070.165559601827</v>
+        <v>1112</v>
       </c>
       <c r="F28" s="5">
         <f>(I28*(D28+C28))/3600000</f>
@@ -1576,7 +1492,7 @@
       </c>
       <c r="E29" s="6">
         <f t="shared" si="1"/>
-        <v>1060.9683110846843</v>
+        <v>1032</v>
       </c>
       <c r="F29" s="5">
         <f>(I29*(D29+C29))/3600000</f>
@@ -1617,7 +1533,7 @@
       </c>
       <c r="E30" s="6">
         <f t="shared" si="1"/>
-        <v>1309.3313475431446</v>
+        <v>1332</v>
       </c>
       <c r="F30" s="5">
         <f>(I30*(D30+C30))/3600000</f>
@@ -1658,7 +1574,7 @@
       </c>
       <c r="E31" s="6">
         <f t="shared" si="1"/>
-        <v>4115.0413779927403</v>
+        <v>4087</v>
       </c>
       <c r="F31" s="5">
         <f>(I31*(D31+C31))/3600000</f>
@@ -1698,8 +1614,8 @@
         <v>5500</v>
       </c>
       <c r="E32" s="6">
-        <f>G32/I32*3600000</f>
-        <v>5761.0579291898366</v>
+        <f t="shared" si="1"/>
+        <v>5601.9999999999991</v>
       </c>
       <c r="F32" s="5">
         <f>(I32*(D32+C32))/3600000</f>
@@ -1733,11 +1649,11 @@
       <c r="E33" s="6"/>
       <c r="G33" s="10">
         <f>SUM(G24:G32)</f>
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H33" s="10">
         <f>SUM(H24:H32)</f>
-        <v>225419.05485097156</v>
+        <v>228990.48342240014</v>
       </c>
       <c r="I33" s="10">
         <f>SUM(I24:I32)</f>
@@ -1745,7 +1661,7 @@
       </c>
       <c r="J33" s="14">
         <f t="shared" si="3"/>
-        <v>0.83275196603279622</v>
+        <v>-0.73840510945313476</v>
       </c>
       <c r="K33" s="11">
         <f>I33/3600</f>
@@ -1792,22 +1708,17 @@
     <mergeCell ref="C37:C38"/>
   </mergeCells>
   <conditionalFormatting sqref="J24:J33">
-    <cfRule type="expression" dxfId="8" priority="6">
-      <formula>J24&lt;5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J24:J33">
-    <cfRule type="expression" dxfId="7" priority="5">
+    <cfRule type="expression" dxfId="5" priority="5">
       <formula>J24&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J24:J33">
-    <cfRule type="expression" dxfId="6" priority="3">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>J24&lt;-5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J24:J33">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="between">
       <formula>-5</formula>
       <formula>5</formula>
     </cfRule>
